--- a/medicine/Enfance/Médaille_Newbery/Médaille_Newbery.xlsx
+++ b/medicine/Enfance/Médaille_Newbery/Médaille_Newbery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Newbery</t>
+          <t>Médaille_Newbery</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille John Newbery (John Newbery Medal) est un prix littéraire décerné chaque année par l'Association for Library Service to Children, branche de l'American Library Association, à l'auteur du meilleur livre pour enfants américain. Le prix existe depuis 1922. Avec la médaille Caldecott, il est considéré comme le prix littéraire le plus prestigieux en littérature de jeunesse aux États-Unis. Son nom vient de John Newbery, un éditeur de livres pour enfants du XVIIIe siècle. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Newbery</t>
+          <t>Médaille_Newbery</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Newbery</t>
+          <t>Médaille_Newbery</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,19 +554,90 @@
           <t>Lauréats de plusieurs médailles Newbery</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces statistiques sont à jour après la remise des prix 2020.
-Lauréats multiples
-Six auteurs ont reçu la médaille Newbery deux fois :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Médaille_Newbery</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9daille_Newbery</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats de plusieurs médailles Newbery</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lauréats multiples</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Six auteurs ont reçu la médaille Newbery deux fois :
 Kate DiCamillo (2004 et 2014, finaliste en 2001)
 E.L. Konigsburg (1968 et 1997, également finaliste en 1968)
 Joseph Krumgold (1954 et 1960)
 Lois Lowry (1990 et 1994)
 Katherine Paterson (1978 et 1981, finaliste en 1979)
-Elizabeth George Speare (1959 et 1962, finaliste en 1984)
-Lauréats et finalistes
-Outre ceux de la section précédente, plusieurs auteurs ont reçu la médaille une fois et été finalistes d'autres années :
+Elizabeth George Speare (1959 et 1962, finaliste en 1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Médaille_Newbery</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9daille_Newbery</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lauréats de plusieurs médailles Newbery</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lauréats et finalistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre ceux de la section précédente, plusieurs auteurs ont reçu la médaille une fois et été finalistes d'autres années :
 </t>
         </is>
       </c>
